--- a/db/Типы элементов.xlsx
+++ b/db/Типы элементов.xlsx
@@ -20,7 +20,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+  <si>
+    <t>id записи
+Уникальный
+Порядковый номер</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Название шаблона отрисовки
+Технический параметр</t>
+  </si>
+  <si>
+    <t>Параметр 1
+расшифровка</t>
+  </si>
+  <si>
+    <t>Параметр 2
+Расшифровка</t>
+  </si>
+  <si>
+    <t>Параметр 3
+Расшифровка</t>
+  </si>
+  <si>
+    <t>Числовой управляющий/считываемый параметр</t>
+  </si>
+  <si>
+    <t>input_param</t>
+  </si>
+  <si>
+    <t>Логический управляющий/считываемый параметр</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>Считываемая таблица значений</t>
+  </si>
+  <si>
+    <t>input_table</t>
+  </si>
+  <si>
+    <t>Шапка таблицы через запятую [точка с зпт
+левый столбец с подписяпи через зпт]</t>
+  </si>
+  <si>
+    <t>Кол-во строк точка с зпт
+Кол-во столбцов</t>
+  </si>
+  <si>
+    <t>Надпись на кнопке</t>
+  </si>
+  <si>
+    <t>Одиночный многократно считываемый параметр</t>
+  </si>
+  <si>
+    <t>onlineparam</t>
+  </si>
+  <si>
+    <t>Многопозиционный дискретный параметр</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>Количество позиций</t>
+  </si>
+  <si>
+    <t>График</t>
+  </si>
+  <si>
+    <t>diagram</t>
+  </si>
+  <si>
+    <t>Число считываний</t>
+  </si>
+  <si>
+    <t>Подпись оси x [зпт подпись оси y]</t>
+  </si>
+  <si>
+    <t>Тип графика
+Grafic или diagram</t>
+  </si>
+  <si>
+    <t>Ссылка</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>Содержание блока, текст или html разметка
+В том числе и ссылки на картинки</t>
+  </si>
+  <si>
+    <t>Ручная таблица значений</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>Шапка таблицы через запятую</t>
+  </si>
+  <si>
+    <t>Ориентация таблицы
+Gorizontal или vertical</t>
+  </si>
+  <si>
+    <t>Текстовое поле ввода</t>
+  </si>
+  <si>
+    <t>text_field</t>
+  </si>
+  <si>
+    <t>Вводимая таблица значений</t>
+  </si>
+  <si>
+    <t>output_table</t>
+  </si>
   <si>
     <r>
       <rPr>
@@ -28,7 +147,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>id записи
+      <t>Кол-во строк точка с зпт
 </t>
     </r>
     <r>
@@ -37,12 +156,14 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Уникальный
-Порядковый номер</t>
+      <t>Кол-во столбцов</t>
     </r>
   </si>
   <si>
-    <t>Название</t>
+    <t>Комплексная таблица значений</t>
+  </si>
+  <si>
+    <t>multi_table</t>
   </si>
   <si>
     <r>
@@ -51,7 +172,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Название шаблона отрисовки
+      <t>Кол-во строк точка с зпт
 </t>
     </r>
     <r>
@@ -60,146 +181,15 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Технический параметр</t>
+      <t>Кол-во считываемых столбцов точка с зпт
+Кол-во вводимых столбцов </t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Параметр 1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>расшифровка</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Параметр 2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Расшифровка</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Параметр 3
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Расшифровка</t>
-    </r>
-  </si>
-  <si>
-    <t>Числовой управляющий/считываемый параметр</t>
-  </si>
-  <si>
-    <t>input_param</t>
-  </si>
-  <si>
-    <t>Логический управляющий/считываемый параметр</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>Считываемая таблица значений</t>
-  </si>
-  <si>
-    <t>analog_table</t>
-  </si>
-  <si>
-    <t>Шапка таблицы через запятую</t>
-  </si>
-  <si>
-    <t>Ориентация таблицы
-Gorizontal или vertical</t>
-  </si>
-  <si>
-    <t>Надпись на кнопке</t>
-  </si>
-  <si>
-    <t>Одиночный многократно считываемый параметр</t>
-  </si>
-  <si>
-    <t>onlineparam</t>
-  </si>
-  <si>
-    <t>Многопозиционный дискретный параметр</t>
-  </si>
-  <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>Количество позиций</t>
-  </si>
-  <si>
-    <t>График</t>
-  </si>
-  <si>
-    <t>diagram</t>
-  </si>
-  <si>
-    <t>Число считываний</t>
-  </si>
-  <si>
-    <t>Подпись оси</t>
-  </si>
-  <si>
-    <t>Тип графика
-Grafic или diagram</t>
-  </si>
-  <si>
-    <t>Ссылка</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>Содержание блока, текст или html разметка
-В том числе и ссылки на картинки</t>
-  </si>
-  <si>
-    <t>Ручная таблица значений</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>Текстовое поле ввода</t>
-  </si>
-  <si>
-    <t>text_field</t>
+    <t>АВР</t>
+  </si>
+  <si>
+    <t>avr</t>
   </si>
 </sst>
 </file>
@@ -210,11 +200,12 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -233,6 +224,12 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -285,7 +282,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -318,21 +315,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.7551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.1938775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.219387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.9234693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.7142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.7551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.7959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.1071428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -387,7 +384,7 @@
       <c r="C4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -467,10 +464,10 @@
         <v>29</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -478,10 +475,61 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/db/Типы элементов.xlsx
+++ b/db/Типы элементов.xlsx
@@ -141,13 +141,24 @@
     <t>output_table</t>
   </si>
   <si>
+    <t>Комплексная таблица значений</t>
+  </si>
+  <si>
+    <t>multi_table</t>
+  </si>
+  <si>
+    <t>Кол-во строк точка с зпт
+Кол-во считываемых столбцов точка с зпт
+Кол-во вводимых столбцов </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Кол-во строк точка с зпт
+      <t>Надпись на кнопке;
 </t>
     </r>
     <r>
@@ -156,33 +167,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Кол-во столбцов</t>
-    </r>
-  </si>
-  <si>
-    <t>Комплексная таблица значений</t>
-  </si>
-  <si>
-    <t>multi_table</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Кол-во строк точка с зпт
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Кол-во считываемых столбцов точка с зпт
-Кол-во вводимых столбцов </t>
+      <t>Надпись на кнопке</t>
     </r>
   </si>
   <si>
@@ -318,18 +303,17 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.7551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.7959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.1071428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.3928571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.1938775510204"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -495,30 +479,30 @@
         <v>12</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/db/Типы элементов.xlsx
+++ b/db/Типы элементов.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="fieldtype" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>id записи
 Уникальный
@@ -99,7 +99,9 @@
     <t>Число считываний</t>
   </si>
   <si>
-    <t>Подпись оси x [зпт подпись оси y]</t>
+    <t>Подпись графика
+[точка с зпт подпись оси x]
+[точка с зпт подпись оси y]</t>
   </si>
   <si>
     <t>Тип графика
@@ -116,17 +118,10 @@
 В том числе и ссылки на картинки</t>
   </si>
   <si>
-    <t>Ручная таблица значений</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>Шапка таблицы через запятую</t>
-  </si>
-  <si>
-    <t>Ориентация таблицы
-Gorizontal или vertical</t>
+    <t>Сборка стенда</t>
+  </si>
+  <si>
+    <t>const_workplace</t>
   </si>
   <si>
     <t>Текстовое поле ввода</t>
@@ -152,23 +147,8 @@
 Кол-во вводимых столбцов </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Надпись на кнопке;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Надпись на кнопке</t>
-    </r>
+    <t>Надпись на кнопке;
+Надпись на кнопке</t>
   </si>
   <si>
     <t>АВР</t>
@@ -185,7 +165,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -214,11 +194,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -303,17 +278,18 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.3469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.3928571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.60204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.9795918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.9897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -403,7 +379,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -416,7 +392,7 @@
       <c r="D7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -437,7 +413,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>9</v>
       </c>
@@ -447,22 +423,17 @@
       <c r="C9" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -470,10 +441,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>12</v>
@@ -490,19 +461,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -510,10 +481,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/db/Типы элементов.xlsx
+++ b/db/Типы элементов.xlsx
@@ -10,17 +10,17 @@
   <sheets>
     <sheet name="fieldtype" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>id записи
 Уникальный
@@ -96,38 +96,50 @@
     <t>diagram</t>
   </si>
   <si>
-    <t>Число считываний</t>
-  </si>
-  <si>
-    <t>Подпись графика
-[точка с зпт подпись оси x]
-[точка с зпт подпись оси y]</t>
+    <t>Если на контроле указан UID, то через ; указываются дополнительные UID. Если нет, то указывается ID контрола таблицы зпт номер строки [; повторяем для доп. Графиков] </t>
+  </si>
+  <si>
+    <t>Подпись графика [;Подпись оси x (текст или html разметка)] [; подпись оси y, если есть (текст или html разметка)] [повторение блока для доп. Графиков]</t>
   </si>
   <si>
     <t>Тип графика
-Grafic или diagram</t>
-  </si>
-  <si>
-    <t>Ссылка</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>Содержание блока, текст или html разметка
-В том числе и ссылки на картинки</t>
+grafic или diagram</t>
+  </si>
+  <si>
+    <t>Текст</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Содержание блока, текст или html разметка</t>
+  </si>
+  <si>
+    <t>Термометр</t>
+  </si>
+  <si>
+    <t>thermometer</t>
   </si>
   <si>
     <t>Сборка стенда</t>
   </si>
   <si>
-    <t>const_workplace</t>
+    <t>const_workplase</t>
+  </si>
+  <si>
+    <t>Номер контрола в лабе (от 1 до 9)</t>
   </si>
   <si>
     <t>Текстовое поле ввода</t>
   </si>
   <si>
     <t>text_field</t>
+  </si>
+  <si>
+    <t>Число символов в высоту</t>
+  </si>
+  <si>
+    <t>Число символов в ширину</t>
   </si>
   <si>
     <t>Вводимая таблица значений</t>
@@ -144,17 +156,50 @@
   <si>
     <t>Кол-во строк точка с зпт
 Кол-во считываемых столбцов точка с зпт
-Кол-во вводимых столбцов </t>
-  </si>
-  <si>
-    <t>Надпись на кнопке;
-Надпись на кнопке</t>
+Кол-во вводимых столбцов</t>
+  </si>
+  <si>
+    <t>Надпись на кнопке;Надпись на кнопке</t>
   </si>
   <si>
     <t>АВР</t>
   </si>
   <si>
     <t>avr</t>
+  </si>
+  <si>
+    <t>Подпись столбца1,Подпись столбца2,Подпись столбца3,Подпись столбца4,Подпись столбца5</t>
+  </si>
+  <si>
+    <t>Таблица с ручным построчным считыванием</t>
+  </si>
+  <si>
+    <t>string_table</t>
+  </si>
+  <si>
+    <t>Мультидействие</t>
+  </si>
+  <si>
+    <t>multi_action</t>
+  </si>
+  <si>
+    <t>id контрола;[таймаут][;id контрола][;таймаут]…</t>
+  </si>
+  <si>
+    <t>Тип мультидействия
+Visible или hidden</t>
+  </si>
+  <si>
+    <t>Изображение</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>Путь до изображения</t>
+  </si>
+  <si>
+    <t>Наличие зума (True или False)</t>
   </si>
 </sst>
 </file>
@@ -192,7 +237,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -242,7 +287,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -275,24 +320,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.60204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.9795918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.9897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.5816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -312,7 +357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -323,7 +368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -334,7 +379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -354,7 +399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -365,7 +410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -379,7 +424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -389,7 +434,7 @@
       <c r="C7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -415,7 +460,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>28</v>
@@ -423,11 +468,11 @@
       <c r="C9" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>30</v>
@@ -435,56 +480,136 @@
       <c r="C10" s="0" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>12</v>
-      </c>
       <c r="B12" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>39</v>
+      <c r="B14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
